--- a/general/xls_statment_RESONANT_template.xlsx
+++ b/general/xls_statment_RESONANT_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Новая папка (2)\DigitRock (2)\DigitRock\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\DigitRock\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC503772-56B8-49C6-AFB0-FD8E33E7ECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88313286-7D99-4A09-9A53-A2C6A58175CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="2145" windowWidth="18930" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1410" windowWidth="23490" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -104,20 +104,100 @@
     <t>РЕЗУЛЬТАТЫ ОПРЕДЕЛЕНИЯ НАЧАЛЬНОГО МОДУЛЯ СДВИГА МЕТОДОМ РЕЗОНАНСНОЙ КОЛОНКИ (ГОСТ Р 56353-2022) №750-22СВД</t>
   </si>
   <si>
-    <t xml:space="preserve">Референтное
-давление pref, МПа
+    <r>
+      <t>Референтное
+давление p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, МПа
 </t>
+    </r>
   </si>
   <si>
-    <t>Модуль сдвига при
+    <r>
+      <t>Модуль сдвига при
 сверхмалых
-деформациях G0,
-Мпа</t>
+деформациях G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,
+МПа</t>
+    </r>
   </si>
   <si>
-    <t>Пороговое значение сдвиговой
-деформации γ0.7
-*10-4, д .е.</t>
+    <r>
+      <t>Пороговое значение сдвиговой
+деформации γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, д .е.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -128,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +342,20 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -2303,8 +2397,8 @@
   </sheetPr>
   <dimension ref="A1:Q810"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J22" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
